--- a/Teaching/Marking calculator.xlsx
+++ b/Teaching/Marking calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\Teaching\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{533518D1-38BD-4FC2-9D85-B138190983B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165852CD-A760-4C08-90A9-AB0F57EC7D9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-1230" windowWidth="19440" windowHeight="15000" xr2:uid="{AFCE41C3-0507-4F3D-8312-A199AC543DA5}"/>
   </bookViews>
@@ -538,14 +538,14 @@
         <v>11</v>
       </c>
       <c r="G3">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H3">
         <v>30</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I5" si="1">G3*H3</f>
-        <v>3000</v>
+        <f t="shared" ref="I3:I4" si="1">G3*H3</f>
+        <v>750</v>
       </c>
       <c r="K3" t="s">
         <v>11</v>
@@ -580,14 +580,14 @@
         <v>10</v>
       </c>
       <c r="G4">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H4">
         <v>50</v>
       </c>
       <c r="I4">
         <f t="shared" si="1"/>
-        <v>2500</v>
+        <v>1250</v>
       </c>
       <c r="K4" t="s">
         <v>10</v>
@@ -609,14 +609,14 @@
       </c>
       <c r="B5">
         <f>I6</f>
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>375</v>
+        <v>200</v>
       </c>
       <c r="K5" t="s">
         <v>13</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="I6">
         <f>SUM(I2:I4)/H6</f>
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="K6" t="s">
         <v>14</v>
@@ -668,7 +668,7 @@
       </c>
       <c r="D7">
         <f>SUM(D2:D5)/C7</f>
-        <v>90.384615384615387</v>
+        <v>76.92307692307692</v>
       </c>
       <c r="K7" t="s">
         <v>15</v>

--- a/Teaching/Marking calculator.xlsx
+++ b/Teaching/Marking calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\Teaching\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165852CD-A760-4C08-90A9-AB0F57EC7D9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F30097-6226-4E9E-AC59-893197FE424E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-1230" windowWidth="19440" windowHeight="15000" xr2:uid="{AFCE41C3-0507-4F3D-8312-A199AC543DA5}"/>
   </bookViews>
@@ -538,14 +538,14 @@
         <v>11</v>
       </c>
       <c r="G3">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="H3">
         <v>30</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I4" si="1">G3*H3</f>
-        <v>750</v>
+        <v>3000</v>
       </c>
       <c r="K3" t="s">
         <v>11</v>
@@ -580,14 +580,15 @@
         <v>10</v>
       </c>
       <c r="G4">
-        <v>25</v>
+        <f>500/6</f>
+        <v>83.333333333333329</v>
       </c>
       <c r="H4">
         <v>50</v>
       </c>
       <c r="I4">
         <f t="shared" si="1"/>
-        <v>1250</v>
+        <v>4166.6666666666661</v>
       </c>
       <c r="K4" t="s">
         <v>10</v>
@@ -609,14 +610,14 @@
       </c>
       <c r="B5">
         <f>I6</f>
-        <v>40</v>
+        <v>91.666666666666657</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>458.33333333333326</v>
       </c>
       <c r="K5" t="s">
         <v>13</v>
@@ -642,7 +643,7 @@
       </c>
       <c r="I6">
         <f>SUM(I2:I4)/H6</f>
-        <v>40</v>
+        <v>91.666666666666657</v>
       </c>
       <c r="K6" t="s">
         <v>14</v>
@@ -668,7 +669,7 @@
       </c>
       <c r="D7">
         <f>SUM(D2:D5)/C7</f>
-        <v>76.92307692307692</v>
+        <v>96.794871794871796</v>
       </c>
       <c r="K7" t="s">
         <v>15</v>

--- a/Teaching/Marking calculator.xlsx
+++ b/Teaching/Marking calculator.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\Teaching\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F30097-6226-4E9E-AC59-893197FE424E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB640A0-5E2C-4D75-A429-B65C85E10C14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-1230" windowWidth="19440" windowHeight="15000" xr2:uid="{AFCE41C3-0507-4F3D-8312-A199AC543DA5}"/>
+    <workbookView xWindow="-19320" yWindow="-1230" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{AFCE41C3-0507-4F3D-8312-A199AC543DA5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Assignment 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Assignment 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="18">
   <si>
     <t>Lab</t>
   </si>
@@ -82,6 +83,12 @@
   </si>
   <si>
     <t>f</t>
+  </si>
+  <si>
+    <t>Gradient Descent</t>
+  </si>
+  <si>
+    <t>MNIST</t>
   </si>
 </sst>
 </file>
@@ -435,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0459B8C2-5B99-4516-AAE6-B82703949454}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,4 +708,253 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD1AD93-408D-4E4B-929D-CC0632C3CAD8}">
+  <dimension ref="A1:N9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <f>I9</f>
+        <v>90</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <f>B2*C2</f>
+        <v>630</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>50</v>
+      </c>
+      <c r="H2">
+        <v>20</v>
+      </c>
+      <c r="I2">
+        <f>G2*H2</f>
+        <v>1000</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+      <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="N2">
+        <f>L2*M2</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <f>N6</f>
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3" si="0">B3*C3</f>
+        <v>800</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I7" si="1">G3*H3</f>
+        <v>2000</v>
+      </c>
+      <c r="K3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3">
+        <v>100</v>
+      </c>
+      <c r="M3">
+        <v>40</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N4" si="2">L3*M3</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="K4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>100</v>
+      </c>
+      <c r="M4">
+        <v>50</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="2"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <f>G5*H5</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="K6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6">
+        <f>SUM(M2:M4)</f>
+        <v>100</v>
+      </c>
+      <c r="N6">
+        <f>SUM(N2:N4)/M6</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <f>SUM(C2:C5)</f>
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <f>SUM(D2:D5)/C7</f>
+        <v>95.333333333333329</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <f>SUM(H2:H7)</f>
+        <v>100</v>
+      </c>
+      <c r="I9">
+        <f>SUM(I2:I7)/H9</f>
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Teaching/Marking calculator.xlsx
+++ b/Teaching/Marking calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\Teaching\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB640A0-5E2C-4D75-A429-B65C85E10C14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F358417C-B058-4BE3-8A89-56E6C66B1DCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-1230" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{AFCE41C3-0507-4F3D-8312-A199AC543DA5}"/>
   </bookViews>
@@ -715,7 +715,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,14 +810,14 @@
       </c>
       <c r="B3">
         <f>N6</f>
-        <v>100</v>
+        <v>87.5</v>
       </c>
       <c r="C3">
         <v>8</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3" si="0">B3*C3</f>
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -864,14 +864,14 @@
         <v>10</v>
       </c>
       <c r="L4">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="M4">
         <v>50</v>
       </c>
       <c r="N4">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -912,7 +912,7 @@
       </c>
       <c r="N6">
         <f>SUM(N2:N4)/M6</f>
-        <v>100</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -925,7 +925,7 @@
       </c>
       <c r="D7">
         <f>SUM(D2:D5)/C7</f>
-        <v>95.333333333333329</v>
+        <v>88.666666666666671</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>

--- a/Teaching/Marking calculator.xlsx
+++ b/Teaching/Marking calculator.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\Teaching\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F358417C-B058-4BE3-8A89-56E6C66B1DCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5DDDF2-B96C-422C-BDBF-A5B947A2B1AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-1230" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{AFCE41C3-0507-4F3D-8312-A199AC543DA5}"/>
+    <workbookView xWindow="-19320" yWindow="-1230" windowWidth="19440" windowHeight="15000" xr2:uid="{AFCE41C3-0507-4F3D-8312-A199AC543DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment 1" sheetId="1" r:id="rId1"/>
     <sheet name="Assignment 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Assignment 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="20">
   <si>
     <t>Lab</t>
   </si>
@@ -89,6 +90,12 @@
   </si>
   <si>
     <t>MNIST</t>
+  </si>
+  <si>
+    <t>RNN</t>
+  </si>
+  <si>
+    <t>RNN App</t>
   </si>
 </sst>
 </file>
@@ -442,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0459B8C2-5B99-4516-AAE6-B82703949454}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,14 +539,14 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D5" si="0">B3*C3</f>
-        <v>300</v>
+        <v>225</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -587,15 +594,14 @@
         <v>10</v>
       </c>
       <c r="G4">
-        <f>500/6</f>
-        <v>83.333333333333329</v>
+        <v>100</v>
       </c>
       <c r="H4">
         <v>50</v>
       </c>
       <c r="I4">
         <f t="shared" si="1"/>
-        <v>4166.6666666666661</v>
+        <v>5000</v>
       </c>
       <c r="K4" t="s">
         <v>10</v>
@@ -617,14 +623,14 @@
       </c>
       <c r="B5">
         <f>I6</f>
-        <v>91.666666666666657</v>
+        <v>100</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>458.33333333333326</v>
+        <v>500</v>
       </c>
       <c r="K5" t="s">
         <v>13</v>
@@ -650,7 +656,7 @@
       </c>
       <c r="I6">
         <f>SUM(I2:I4)/H6</f>
-        <v>91.666666666666657</v>
+        <v>100</v>
       </c>
       <c r="K6" t="s">
         <v>14</v>
@@ -676,7 +682,7 @@
       </c>
       <c r="D7">
         <f>SUM(D2:D5)/C7</f>
-        <v>96.794871794871796</v>
+        <v>94.230769230769226</v>
       </c>
       <c r="K7" t="s">
         <v>15</v>
@@ -714,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD1AD93-408D-4E4B-929D-CC0632C3CAD8}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,4 +963,225 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81033F8C-2D43-4DE1-8E2C-379D308330B2}">
+  <dimension ref="A1:N7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <f>I7</f>
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <f>B2*C2</f>
+        <v>500</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>25</v>
+      </c>
+      <c r="I2">
+        <f>G2*H2</f>
+        <v>2500</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2">
+        <v>80</v>
+      </c>
+      <c r="M2">
+        <v>25</v>
+      </c>
+      <c r="N2">
+        <f>L2*M2</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <f>N6</f>
+        <v>95</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3" si="0">B3*C3</f>
+        <v>665</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>25</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I4" si="1">G3*H3</f>
+        <v>2500</v>
+      </c>
+      <c r="K3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3">
+        <v>100</v>
+      </c>
+      <c r="M3">
+        <v>25</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N4" si="2">L3*M3</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>25</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
+      <c r="K4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>100</v>
+      </c>
+      <c r="M4">
+        <v>50</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="2"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <f>SUM(C2:C3)</f>
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <f>SUM(D2:D3)/C5</f>
+        <v>97.083333333333329</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>25</v>
+      </c>
+      <c r="I5">
+        <f>G5*H5</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6">
+        <f>SUM(M2:M4)</f>
+        <v>100</v>
+      </c>
+      <c r="N6">
+        <f>SUM(N2:N4)/M6</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <f>SUM(H2:H5)</f>
+        <v>100</v>
+      </c>
+      <c r="I7">
+        <f>SUM(I2:I5)/H7</f>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Teaching/Marking calculator.xlsx
+++ b/Teaching/Marking calculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\Teaching\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5DDDF2-B96C-422C-BDBF-A5B947A2B1AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E50B04-A311-432D-A149-2235EC460DDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-1230" windowWidth="19440" windowHeight="15000" xr2:uid="{AFCE41C3-0507-4F3D-8312-A199AC543DA5}"/>
+    <workbookView xWindow="-19320" yWindow="-1230" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{AFCE41C3-0507-4F3D-8312-A199AC543DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment 1" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0459B8C2-5B99-4516-AAE6-B82703949454}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -969,13 +969,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81033F8C-2D43-4DE1-8E2C-379D308330B2}">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1049,14 +1049,14 @@
         <v>9</v>
       </c>
       <c r="L2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="M2">
         <v>25</v>
       </c>
       <c r="N2">
         <f>L2*M2</f>
-        <v>2000</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1065,14 +1065,14 @@
       </c>
       <c r="B3">
         <f>N6</f>
-        <v>95</v>
+        <v>12.5</v>
       </c>
       <c r="C3">
         <v>7</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3" si="0">B3*C3</f>
-        <v>665</v>
+        <v>87.5</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -1091,14 +1091,14 @@
         <v>11</v>
       </c>
       <c r="L3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>25</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N4" si="2">L3*M3</f>
-        <v>2500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1119,14 +1119,14 @@
         <v>10</v>
       </c>
       <c r="L4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>50</v>
       </c>
       <c r="N4">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="D5">
         <f>SUM(D2:D3)/C5</f>
-        <v>97.083333333333329</v>
+        <v>48.958333333333336</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="N6">
         <f>SUM(N2:N4)/M6</f>
-        <v>95</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">

--- a/Teaching/Marking calculator.xlsx
+++ b/Teaching/Marking calculator.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\Teaching\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E50B04-A311-432D-A149-2235EC460DDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B938BAE-6C7D-4F26-988F-8902E0FEF6A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-1230" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{AFCE41C3-0507-4F3D-8312-A199AC543DA5}"/>
+    <workbookView xWindow="-19320" yWindow="-1230" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{AFCE41C3-0507-4F3D-8312-A199AC543DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment 1" sheetId="1" r:id="rId1"/>
     <sheet name="Assignment 2" sheetId="2" r:id="rId2"/>
     <sheet name="Assignment 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Assignment 4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="22">
   <si>
     <t>Lab</t>
   </si>
@@ -96,6 +97,12 @@
   </si>
   <si>
     <t>RNN App</t>
+  </si>
+  <si>
+    <t>Language Models</t>
+  </si>
+  <si>
+    <t>NMC</t>
   </si>
 </sst>
 </file>
@@ -450,7 +457,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F18" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,7 +976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81033F8C-2D43-4DE1-8E2C-379D308330B2}">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
@@ -1184,4 +1191,193 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284B9C0B-818A-491A-AD97-C804C666E6AF}">
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <f>I6</f>
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <f>B2*C2</f>
+        <v>400</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>25</v>
+      </c>
+      <c r="I2">
+        <f>G2*H2</f>
+        <v>2500</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2">
+        <v>50</v>
+      </c>
+      <c r="M2">
+        <v>30</v>
+      </c>
+      <c r="N2">
+        <f>L2*M2</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <f>N5</f>
+        <v>67.5</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3" si="0">B3*C3</f>
+        <v>1350</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>25</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I4" si="1">G3*H3</f>
+        <v>2500</v>
+      </c>
+      <c r="K3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3">
+        <v>75</v>
+      </c>
+      <c r="M3">
+        <v>70</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3" si="2">L3*M3</f>
+        <v>5250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>50</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <f>C2+C3</f>
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <f>SUM(D2:D3)/C5</f>
+        <v>72.916666666666671</v>
+      </c>
+      <c r="K5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5">
+        <f>SUM(M2:M3)</f>
+        <v>100</v>
+      </c>
+      <c r="N5">
+        <f>SUM(N2:N3)/M5</f>
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <f>SUM(H2:H4)</f>
+        <v>100</v>
+      </c>
+      <c r="I6">
+        <f>SUM(I2:I4)/H6</f>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Teaching/Marking calculator.xlsx
+++ b/Teaching/Marking calculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\Teaching\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B938BAE-6C7D-4F26-988F-8902E0FEF6A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2917B80F-0631-421D-B7E6-4CD0BE2CB3A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-1230" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{AFCE41C3-0507-4F3D-8312-A199AC543DA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{AFCE41C3-0507-4F3D-8312-A199AC543DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment 1" sheetId="1" r:id="rId1"/>
@@ -1198,7 +1198,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1247,14 +1247,14 @@
       </c>
       <c r="B2">
         <f>I6</f>
-        <v>100</v>
+        <v>83.25</v>
       </c>
       <c r="C2">
         <v>4</v>
       </c>
       <c r="D2">
         <f>B2*C2</f>
-        <v>400</v>
+        <v>333</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -1273,14 +1273,14 @@
         <v>9</v>
       </c>
       <c r="L2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>30</v>
       </c>
       <c r="N2">
         <f>L2*M2</f>
-        <v>1500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1289,27 +1289,27 @@
       </c>
       <c r="B3">
         <f>N5</f>
-        <v>67.5</v>
+        <v>52.5</v>
       </c>
       <c r="C3">
         <v>20</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3" si="0">B3*C3</f>
-        <v>1350</v>
+        <v>1050</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
       <c r="G3">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H3">
         <v>25</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I4" si="1">G3*H3</f>
-        <v>2500</v>
+        <v>825</v>
       </c>
       <c r="K3" t="s">
         <v>11</v>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="D5">
         <f>SUM(D2:D3)/C5</f>
-        <v>72.916666666666671</v>
+        <v>57.625</v>
       </c>
       <c r="K5" t="s">
         <v>8</v>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="N5">
         <f>SUM(N2:N3)/M5</f>
-        <v>67.5</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="I6">
         <f>SUM(I2:I4)/H6</f>
-        <v>100</v>
+        <v>83.25</v>
       </c>
     </row>
   </sheetData>

--- a/Teaching/Marking calculator.xlsx
+++ b/Teaching/Marking calculator.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\Teaching\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2917B80F-0631-421D-B7E6-4CD0BE2CB3A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C8B883-4E2C-4765-ACCC-96AE01B2EF66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{AFCE41C3-0507-4F3D-8312-A199AC543DA5}"/>
+    <workbookView xWindow="-19320" yWindow="-1230" windowWidth="19440" windowHeight="15000" firstSheet="1" activeTab="4" xr2:uid="{AFCE41C3-0507-4F3D-8312-A199AC543DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment 1" sheetId="1" r:id="rId1"/>
     <sheet name="Assignment 2" sheetId="2" r:id="rId2"/>
     <sheet name="Assignment 3" sheetId="3" r:id="rId3"/>
     <sheet name="Assignment 4" sheetId="4" r:id="rId4"/>
+    <sheet name="Assignment 5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="41">
   <si>
     <t>Lab</t>
   </si>
@@ -103,6 +104,63 @@
   </si>
   <si>
     <t>NMC</t>
+  </si>
+  <si>
+    <t>GRU</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Second</t>
+  </si>
+  <si>
+    <t>Seq2Seq</t>
+  </si>
+  <si>
+    <t>a matrix size</t>
+  </si>
+  <si>
+    <t>a right format</t>
+  </si>
+  <si>
+    <t>a balance file</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>90+%</t>
+  </si>
+  <si>
+    <t>right format</t>
+  </si>
+  <si>
+    <t>&lt;= 10 words</t>
+  </si>
+  <si>
+    <t>10x shuffles</t>
+  </si>
+  <si>
+    <t>1000 testing lines</t>
+  </si>
+  <si>
+    <t>Statement Verify</t>
+  </si>
+  <si>
+    <t>RNN/GRU</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>Relative sizes</t>
+  </si>
+  <si>
+    <t>57%+</t>
+  </si>
+  <si>
+    <t>a 57%+</t>
   </si>
 </sst>
 </file>
@@ -1197,7 +1255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284B9C0B-818A-491A-AD97-C804C666E6AF}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
@@ -1380,4 +1438,493 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B3F5FB5-260A-479B-BFF3-2F2D5321B488}">
+  <dimension ref="A1:S19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <f>N7</f>
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <f>B2*C2</f>
+        <v>450</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <f>SUM(I3:I6)/SUM(H3:H6)</f>
+        <v>62.5</v>
+      </c>
+      <c r="H2">
+        <v>50</v>
+      </c>
+      <c r="I2">
+        <f>G2*H2</f>
+        <v>3125</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>25</v>
+      </c>
+      <c r="N2">
+        <f>L2*M2</f>
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>25</v>
+      </c>
+      <c r="S2">
+        <f>Q2*R2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <f>S9</f>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3" si="0">B3*C3</f>
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3">
+        <v>50</v>
+      </c>
+      <c r="H3">
+        <v>25</v>
+      </c>
+      <c r="I3">
+        <f>G3*H3</f>
+        <v>1250</v>
+      </c>
+      <c r="K3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>25</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N5" si="1">L3*M3</f>
+        <v>0</v>
+      </c>
+      <c r="P3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>25</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3" si="2">Q3*R3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>25</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I6" si="3">G4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>100</v>
+      </c>
+      <c r="M4">
+        <v>25</v>
+      </c>
+      <c r="N4">
+        <f>L4*M4</f>
+        <v>2500</v>
+      </c>
+      <c r="P4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>10</v>
+      </c>
+      <c r="S4">
+        <f>Q4*R4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <f>C2+C3</f>
+        <v>36</v>
+      </c>
+      <c r="D5">
+        <f>SUM(D2:D3)/C5</f>
+        <v>12.5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>2000</v>
+      </c>
+      <c r="K5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>25</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>15</v>
+      </c>
+      <c r="S5">
+        <f t="shared" ref="S5" si="4">Q5*R5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>30</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>3000</v>
+      </c>
+      <c r="P6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>15</v>
+      </c>
+      <c r="S6">
+        <f>Q6*R6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>50</v>
+      </c>
+      <c r="H7">
+        <v>50</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ref="I7" si="5">G7*H7</f>
+        <v>2500</v>
+      </c>
+      <c r="K7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7">
+        <f>SUM(M2:M5)</f>
+        <v>100</v>
+      </c>
+      <c r="N7">
+        <f>SUM(N2:N5)/M7</f>
+        <v>25</v>
+      </c>
+      <c r="P7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>10</v>
+      </c>
+      <c r="S7">
+        <f t="shared" ref="S7" si="6">Q7*R7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <f>H2+H7</f>
+        <v>100</v>
+      </c>
+      <c r="I9">
+        <f>(I2+I7)/H9</f>
+        <v>56.25</v>
+      </c>
+      <c r="R9">
+        <f>SUM(R2:R7)</f>
+        <v>100</v>
+      </c>
+      <c r="S9">
+        <f>SUM(S2:S7)/R9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R10">
+        <f>R2+R3+R6+R7</f>
+        <v>75</v>
+      </c>
+      <c r="S10">
+        <f>(S2+S3+S6+S7)/R10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <f>SUM(I13:I16)/SUM(H13:H16)</f>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>50</v>
+      </c>
+      <c r="I12">
+        <f>G12*H12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>30</v>
+      </c>
+      <c r="I13">
+        <f>G13*H13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>20</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ref="I14:I17" si="7">G14*H14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>20</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>30</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>50</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19">
+        <f>H12+H17</f>
+        <v>100</v>
+      </c>
+      <c r="I19">
+        <f>(I12+I17)/H19</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>